--- a/target/test-classes/Datasheet/Datasheet_Result.xlsx
+++ b/target/test-classes/Datasheet/Datasheet_Result.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA7B7363-F668-4284-ACC0-729E725B985C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ED351A4-D754-4689-975F-B661A2B20B7F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="879" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Control" sheetId="2" r:id="rId1"/>
-    <sheet name="HLS_01_booking_tickets" sheetId="16" r:id="rId2"/>
+    <sheet name="HLS_01_Login_Flow" sheetId="16" r:id="rId2"/>
     <sheet name="HLS_01_Login" sheetId="12" state="hidden" r:id="rId3"/>
     <sheet name="Reference" sheetId="8" r:id="rId4"/>
   </sheets>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="76">
   <si>
     <t>tc_id</t>
   </si>
@@ -187,12 +187,6 @@
     <t>booking_tickets_Test</t>
   </si>
   <si>
-    <t>HLS_01_booking_tickets</t>
-  </si>
-  <si>
-    <t>TC_01___booking_tickets</t>
-  </si>
-  <si>
     <t>TC_02___booking_tickets</t>
   </si>
   <si>
@@ -202,24 +196,12 @@
     <t>TC_04__booking_tickets</t>
   </si>
   <si>
-    <t>radio_button</t>
-  </si>
-  <si>
     <t>Radio_Button</t>
   </si>
   <si>
-    <t>City_from</t>
-  </si>
-  <si>
-    <t>City_to</t>
-  </si>
-  <si>
     <t>Adults</t>
   </si>
   <si>
-    <t>Children</t>
-  </si>
-  <si>
     <t>Infants</t>
   </si>
   <si>
@@ -235,30 +217,12 @@
     <t>Multi-City</t>
   </si>
   <si>
-    <t>assert_city_from</t>
-  </si>
-  <si>
-    <t>assert_city_to</t>
-  </si>
-  <si>
     <t>Pune - Poona - Lohegaon,India [PNQ]</t>
   </si>
   <si>
     <t>Bangalore - Bengaluru International Airport,India [BLR]</t>
   </si>
   <si>
-    <t>datefrom</t>
-  </si>
-  <si>
-    <t>dateto</t>
-  </si>
-  <si>
-    <t>1/March/2019</t>
-  </si>
-  <si>
-    <t>2/March/2019</t>
-  </si>
-  <si>
     <t>city from</t>
   </si>
   <si>
@@ -271,25 +235,28 @@
     <t>Mumbai - Chhatrapati Shivaji,India [BOM]</t>
   </si>
   <si>
-    <t>Assert_radio_button</t>
-  </si>
-  <si>
-    <t>Assertion_message_for_button</t>
-  </si>
-  <si>
-    <t>Assert fail</t>
-  </si>
-  <si>
-    <t>psarkate94@gmail.com</t>
-  </si>
-  <si>
-    <t>Mail_id</t>
-  </si>
-  <si>
-    <t>Check_bag_insurance</t>
-  </si>
-  <si>
     <t>Browser</t>
+  </si>
+  <si>
+    <t>HLS_01_Login_Flow</t>
+  </si>
+  <si>
+    <t>TC_01___Login_Flow</t>
+  </si>
+  <si>
+    <t>Login_Test</t>
+  </si>
+  <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>abhishek</t>
+  </si>
+  <si>
+    <t>India@12</t>
   </si>
 </sst>
 </file>
@@ -525,7 +492,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -580,72 +547,13 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="12" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="16">
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="10">
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -751,8 +659,8 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9">
     <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" dxfId="15"/>
-      <tableStyleElement type="headerRow" dxfId="14"/>
+      <tableStyleElement type="wholeTable" dxfId="9"/>
+      <tableStyleElement type="headerRow" dxfId="8"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -1103,7 +1011,7 @@
   <dimension ref="A1:C34"/>
   <sheetViews>
     <sheetView zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1129,7 +1037,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>52</v>
+        <v>69</v>
       </c>
       <c r="C2" t="s">
         <v>12</v>
@@ -1273,18 +1181,18 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C5:C1048576">
-    <cfRule type="cellIs" dxfId="13" priority="5" operator="equal">
+    <cfRule type="cellIs" dxfId="7" priority="5" operator="equal">
       <formula>"No"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="12" priority="6" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="6" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C1 C3:C4">
-    <cfRule type="cellIs" dxfId="11" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
       <formula>"No"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1322,7 +1230,7 @@
   <dimension ref="A1:W6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1358,52 +1266,25 @@
         <v>5</v>
       </c>
       <c r="G1" s="22" t="s">
-        <v>57</v>
+        <v>72</v>
       </c>
       <c r="H1" s="22" t="s">
-        <v>59</v>
-      </c>
-      <c r="I1" s="22" t="s">
-        <v>60</v>
-      </c>
-      <c r="J1" s="22" t="s">
-        <v>61</v>
-      </c>
-      <c r="K1" s="22" t="s">
-        <v>62</v>
-      </c>
-      <c r="L1" s="22" t="s">
-        <v>63</v>
-      </c>
-      <c r="M1" s="22" t="s">
-        <v>68</v>
-      </c>
-      <c r="N1" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="O1" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="P1" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="Q1" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="R1" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="S1" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="T1" s="28" t="s">
-        <v>85</v>
-      </c>
+      <c r="I1" s="22"/>
+      <c r="J1" s="22"/>
+      <c r="K1" s="22"/>
+      <c r="L1" s="22"/>
+      <c r="M1" s="22"/>
+      <c r="N1" s="22"/>
+      <c r="O1" s="22"/>
+      <c r="P1" s="22"/>
+      <c r="T1" s="28"/>
       <c r="V1" s="6"/>
     </row>
-    <row r="2" spans="1:23" ht="45" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:23" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="21" t="s">
-        <v>53</v>
+        <v>70</v>
       </c>
       <c r="B2" s="21"/>
       <c r="C2" s="21" t="s">
@@ -1416,61 +1297,32 @@
         <v>1</v>
       </c>
       <c r="F2" s="21" t="s">
-        <v>51</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="I2" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="J2" s="23">
-        <v>1</v>
-      </c>
-      <c r="K2" s="4">
-        <v>1</v>
-      </c>
-      <c r="L2" s="4">
-        <v>0</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="N2" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="O2" s="29" t="s">
+      <c r="G2" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="P2" s="29" t="s">
+      <c r="H2" s="21" t="s">
         <v>75</v>
       </c>
-      <c r="Q2" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="R2" s="30" t="s">
-        <v>82</v>
-      </c>
-      <c r="S2" s="31" t="s">
-        <v>83</v>
-      </c>
-      <c r="T2" s="28" t="s">
-        <v>6</v>
-      </c>
+      <c r="J2" s="23"/>
+      <c r="M2" s="4"/>
+      <c r="O2" s="29"/>
+      <c r="P2" s="29"/>
+      <c r="R2" s="30"/>
+      <c r="S2" s="31"/>
+      <c r="T2" s="28"/>
       <c r="U2" s="30"/>
       <c r="V2" s="25"/>
       <c r="W2" s="24"/>
     </row>
     <row r="3" spans="1:23" ht="45" x14ac:dyDescent="0.25">
       <c r="A3" s="21" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B3" s="21"/>
       <c r="C3" s="21" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D3" s="21" t="s">
         <v>8</v>
@@ -1481,57 +1333,23 @@
       <c r="F3" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="G3" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="I3" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="J3" s="23">
-        <v>1</v>
-      </c>
-      <c r="K3" s="4">
-        <v>1</v>
-      </c>
-      <c r="L3" s="4">
-        <v>0</v>
-      </c>
-      <c r="M3" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="N3" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="O3" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="P3" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q3" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="R3" s="30" t="s">
-        <v>82</v>
-      </c>
-      <c r="S3" s="31" t="s">
-        <v>83</v>
-      </c>
-      <c r="T3" s="28" t="s">
-        <v>6</v>
-      </c>
+      <c r="G3" s="4"/>
+      <c r="J3" s="23"/>
+      <c r="M3" s="4"/>
+      <c r="O3" s="29"/>
+      <c r="P3" s="29"/>
+      <c r="R3" s="30"/>
+      <c r="S3" s="31"/>
+      <c r="T3" s="28"/>
       <c r="V3" s="6"/>
     </row>
     <row r="4" spans="1:23" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="21" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B4" s="21"/>
       <c r="C4" s="21" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D4" s="21" t="s">
         <v>8</v>
@@ -1542,57 +1360,23 @@
       <c r="F4" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="G4" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="H4" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="I4" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="J4" s="23">
-        <v>1</v>
-      </c>
-      <c r="K4" s="4">
-        <v>1</v>
-      </c>
-      <c r="L4" s="4">
-        <v>0</v>
-      </c>
-      <c r="M4" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="N4" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="O4" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="P4" s="29" t="s">
-        <v>75</v>
-      </c>
-      <c r="Q4" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="R4" s="30" t="s">
-        <v>82</v>
-      </c>
-      <c r="S4" s="31" t="s">
-        <v>83</v>
-      </c>
-      <c r="T4" s="28" t="s">
-        <v>6</v>
-      </c>
+      <c r="G4" s="4"/>
+      <c r="J4" s="23"/>
+      <c r="M4" s="4"/>
+      <c r="O4" s="29"/>
+      <c r="P4" s="29"/>
+      <c r="R4" s="30"/>
+      <c r="S4" s="31"/>
+      <c r="T4" s="28"/>
       <c r="V4" s="6"/>
     </row>
     <row r="5" spans="1:23" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="21" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B5" s="21"/>
       <c r="C5" s="21" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="D5" s="21" t="s">
         <v>8</v>
@@ -1603,48 +1387,16 @@
       <c r="F5" s="21" t="s">
         <v>51</v>
       </c>
-      <c r="G5" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="H5" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="I5" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="J5" s="23">
-        <v>1</v>
-      </c>
-      <c r="K5" s="4">
-        <v>1</v>
-      </c>
-      <c r="L5" s="4">
-        <v>0</v>
-      </c>
-      <c r="M5" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="N5" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="O5" s="29" t="s">
-        <v>74</v>
-      </c>
-      <c r="P5" s="29" t="s">
+      <c r="G5" s="4"/>
+      <c r="J5" s="23"/>
+      <c r="M5" s="4"/>
+      <c r="O5" s="29"/>
+      <c r="P5" s="32" t="s">
         <v>75</v>
       </c>
-      <c r="Q5" s="4" t="s">
-        <v>65</v>
-      </c>
-      <c r="R5" s="30" t="s">
-        <v>82</v>
-      </c>
-      <c r="S5" s="31" t="s">
-        <v>83</v>
-      </c>
-      <c r="T5" s="28" t="s">
-        <v>6</v>
-      </c>
+      <c r="R5" s="30"/>
+      <c r="S5" s="31"/>
+      <c r="T5" s="28"/>
       <c r="U5" s="4" t="s">
         <v>35</v>
       </c>
@@ -1673,10 +1425,10 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C1:C2">
-    <cfRule type="cellIs" dxfId="9" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="3" priority="9" operator="equal">
       <formula>"No"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="10" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -1689,13 +1441,11 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="S2" r:id="rId1" xr:uid="{1BD34573-5FAB-4BD4-8114-AAD12D4DA82E}"/>
-    <hyperlink ref="S3" r:id="rId2" xr:uid="{10B37D92-E619-4132-8043-012ECC673B44}"/>
-    <hyperlink ref="S4" r:id="rId3" xr:uid="{645A51F8-313E-4F95-8271-7B5E521F3144}"/>
-    <hyperlink ref="S5" r:id="rId4" xr:uid="{A54C5D47-B73A-4CDE-9914-9D328566AEC2}"/>
+    <hyperlink ref="P5" r:id="rId1" xr:uid="{C448A4CB-0B33-47B9-90BD-A8D70F98AC41}"/>
+    <hyperlink ref="H2" r:id="rId2" xr:uid="{797042F0-7486-44E4-AA84-DDB4E9544011}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId5"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId3"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="13">
@@ -1739,7 +1489,7 @@
           <x14:formula1>
             <xm:f>Reference!$P$2:$P$4</xm:f>
           </x14:formula1>
-          <xm:sqref>Q2:Q5 G2:G5</xm:sqref>
+          <xm:sqref>Q2:Q5 G3:G5</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{6EA340C7-3EEB-4CC0-8EC4-8EA2DF5A367C}">
           <x14:formula1>
@@ -1763,7 +1513,7 @@
           <x14:formula1>
             <xm:f>Reference!$U$2:$U$4</xm:f>
           </x14:formula1>
-          <xm:sqref>H2:H5</xm:sqref>
+          <xm:sqref>H3:H5</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{49B0FBBA-B145-4513-8C82-58778790AD1D}">
           <x14:formula1>
@@ -1839,22 +1589,22 @@
         <v>37</v>
       </c>
       <c r="P1" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="R1" t="s">
+        <v>56</v>
+      </c>
+      <c r="S1" t="s">
         <v>58</v>
       </c>
-      <c r="R1" t="s">
-        <v>61</v>
-      </c>
-      <c r="S1" t="s">
+      <c r="T1" s="26" t="s">
+        <v>57</v>
+      </c>
+      <c r="U1" t="s">
         <v>64</v>
       </c>
-      <c r="T1" s="26" t="s">
-        <v>63</v>
-      </c>
-      <c r="U1" t="s">
-        <v>76</v>
-      </c>
       <c r="V1" t="s">
-        <v>78</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:22" x14ac:dyDescent="0.25">
@@ -1882,7 +1632,7 @@
         <v>38</v>
       </c>
       <c r="P2" s="17" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="R2">
         <v>0</v>
@@ -1894,10 +1644,10 @@
         <v>0</v>
       </c>
       <c r="U2" t="s">
-        <v>77</v>
+        <v>65</v>
       </c>
       <c r="V2" t="s">
-        <v>71</v>
+        <v>63</v>
       </c>
     </row>
     <row r="3" spans="1:22" x14ac:dyDescent="0.25">
@@ -1922,7 +1672,7 @@
         <v>39</v>
       </c>
       <c r="P3" s="17" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="R3">
         <v>1</v>
@@ -1934,10 +1684,10 @@
         <v>1</v>
       </c>
       <c r="U3" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="V3" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:22" x14ac:dyDescent="0.25">
@@ -1962,7 +1712,7 @@
       </c>
       <c r="K4" s="1"/>
       <c r="P4" s="17" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="R4">
         <v>2</v>
@@ -1971,7 +1721,7 @@
         <v>2</v>
       </c>
       <c r="U4" t="s">
-        <v>79</v>
+        <v>67</v>
       </c>
       <c r="V4" s="17"/>
     </row>
@@ -2014,7 +1764,7 @@
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="B7" s="17" t="s">
-        <v>86</v>
+        <v>68</v>
       </c>
       <c r="E7" s="17" t="s">
         <v>33</v>
